--- a/AA6 - BUSQUEDAS OPTIMAS.xlsx
+++ b/AA6 - BUSQUEDAS OPTIMAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B1D17-2232-43AA-8A36-93D8062A73BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA3261E-01D0-4293-9C01-1A32462D6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5CDA15B3-C78B-4327-B658-4CCD3622B650}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CDA15B3-C78B-4327-B658-4CCD3622B650}"/>
   </bookViews>
   <sheets>
     <sheet name="Palabras clave" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>Universidad Nacional Autónoma de México
 Escuela Nacional de Estudios Superiores Unidad Mérida
@@ -266,6 +266,114 @@
   <si>
     <t xml:space="preserve">accesibilidad AND distancia </t>
   </si>
+  <si>
+    <t xml:space="preserve">trafico OR auto particular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicicleta AND ciclovias </t>
+  </si>
+  <si>
+    <t>camiones OR metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avenidad OR autopista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desplazamiento AND periferico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carretera AND  transito rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transito urbano AND vias principales </t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.mx/pdf/igeo/n93/2448-7279-igeo-93-00011.pdf</t>
+  </si>
+  <si>
+    <t>transporte colectivo AND tiempo</t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/pdf/biut/v24n1/0124-7913-biut-24-01-35.pdf</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=121013257008</t>
+  </si>
+  <si>
+    <t>scielo</t>
+  </si>
+  <si>
+    <t>redalyc</t>
+  </si>
+  <si>
+    <t>https://www.scielo.cl/pdf/eure/v44n132/0250-7161-eure-44-132-0185.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte privado AND transito urbano </t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=31223103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte consecionado AND  costos </t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=333027079004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scielo </t>
+  </si>
+  <si>
+    <t>readlyc</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=321154298020</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=13365964002</t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/pdf/biut/v26n2/v26n2a08.pdf</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/journal/112/11257722011/</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/articulo.oa?id=41742710008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efectos de transporte </t>
+  </si>
+  <si>
+    <t>control y simulacion de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte publico </t>
+  </si>
+  <si>
+    <t>urbanismo</t>
+  </si>
+  <si>
+    <t>estado y transporte urbano</t>
+  </si>
+  <si>
+    <t>estudios demograficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion </t>
+  </si>
+  <si>
+    <t>politicas publicas</t>
+  </si>
+  <si>
+    <t>infraestructura vial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movilidad de la poblacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">influencia de la carretera </t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,23 +433,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,6 +457,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,8 +598,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -531,14 +632,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,46 +647,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -596,11 +699,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F9EFF1-2733-431B-9034-ECF3B2641086}">
   <dimension ref="A1:X987"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:G20"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1358,7 @@
     </row>
     <row r="8" spans="1:24" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="37" t="s">
         <v>4</v>
       </c>
@@ -1283,21 +1385,21 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>4</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>5</v>
       </c>
       <c r="H9" s="4"/>
@@ -1332,7 +1434,7 @@
       <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -1358,7 +1460,7 @@
     </row>
     <row r="11" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1396,7 +1498,7 @@
     </row>
     <row r="12" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1434,7 +1536,7 @@
     </row>
     <row r="13" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1472,7 +1574,7 @@
     </row>
     <row r="14" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>4</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1510,10 +1612,10 @@
     </row>
     <row r="15" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>5</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1548,7 +1650,7 @@
     </row>
     <row r="16" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1586,7 +1688,7 @@
     </row>
     <row r="17" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1624,7 +1726,7 @@
     </row>
     <row r="18" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>8</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1662,7 +1764,7 @@
     </row>
     <row r="19" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1700,7 +1802,7 @@
     </row>
     <row r="20" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>10</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -26896,8 +26998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FF66CF-1E1B-4563-A182-3B0F45DB1FF6}">
   <dimension ref="A1:S986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26906,7 +27008,7 @@
     <col min="2" max="2" width="25.7109375" style="9" customWidth="1"/>
     <col min="3" max="6" width="25.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="3"/>
-    <col min="8" max="8" width="41.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -27075,7 +27177,7 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="4"/>
@@ -27103,7 +27205,7 @@
       <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -27123,7 +27225,6 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
@@ -27143,7 +27244,9 @@
         <v>27</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -27154,7 +27257,6 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
@@ -27174,7 +27276,9 @@
         <v>28</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -27185,7 +27289,6 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
@@ -27205,7 +27308,9 @@
         <v>29</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -27216,7 +27321,6 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
@@ -27236,7 +27340,9 @@
         <v>54</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -27247,11 +27353,10 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -27267,7 +27372,9 @@
         <v>55</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -27278,7 +27385,6 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
@@ -27298,7 +27404,9 @@
         <v>57</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -27309,7 +27417,6 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -27329,7 +27436,9 @@
         <v>61</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -27340,7 +27449,6 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
@@ -27360,7 +27468,9 @@
         <v>67</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -27371,7 +27481,6 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
@@ -27391,7 +27500,9 @@
         <v>68</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -27402,7 +27513,6 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
@@ -27422,7 +27532,9 @@
         <v>69</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -27433,7 +27545,6 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -47752,7 +47863,8 @@
     <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -47760,16 +47872,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AF20DB-39F0-4FDF-84B9-E2DDF7B6C680}">
   <dimension ref="B1:W986"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="3"/>
     <col min="2" max="2" width="25.7109375" style="9" customWidth="1"/>
-    <col min="3" max="6" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.85546875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -47950,22 +48065,22 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="2:23" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="4"/>
@@ -47986,12 +48101,24 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -48010,12 +48137,24 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -48034,12 +48173,24 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="B11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="30">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -48058,12 +48209,24 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="30">
+        <v>3</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -48082,12 +48245,24 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="30">
+        <v>10</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -48106,12 +48281,24 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -48130,12 +48317,24 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="25">
+        <v>6</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>91</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -48154,12 +48353,24 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="B16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="25">
+        <v>5</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -48178,12 +48389,24 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="B17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="25">
+        <v>13</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -48202,12 +48425,24 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="25">
+        <v>8</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -48226,12 +48461,24 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="26"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44643</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="25">
+        <v>10</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -71464,7 +71711,21 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="D2:G2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{9419630A-98C6-4876-B0F4-3C4A74EAD30C}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{E7BAE224-54F3-4916-85B6-C3ED007F77B0}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{D41B5212-FA6D-4001-AFF0-21E4CB602BBC}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{361A2FB5-6F4C-46EE-A900-1ABD831A8FCD}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{351359EA-AD79-4792-8DD1-455CE62257BD}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{528FD505-580E-4A45-9709-5EB3B0B9D055}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{2B3ACCD4-01D1-4EC8-A16D-7753BBBC179B}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{13C80146-200B-4DA8-9EAD-2578600ABDA6}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{56E36C51-89D9-4392-9843-54ECB9F95EAB}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{C2407EAA-B3DE-4064-9561-C9DF9549A08A}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{24237F23-6ABC-4540-B798-09481654091E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>